--- a/stats.xlsx
+++ b/stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>x</t>
   </si>
@@ -130,126 +130,108 @@
     <t>SFS</t>
   </si>
   <si>
-    <t xml:space="preserve">noticable sfs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noticable sfbs</t>
-  </si>
-  <si>
     <t>mp</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>a_o</t>
-  </si>
-  <si>
-    <t>y'</t>
-  </si>
-  <si>
     <t>y.</t>
   </si>
   <si>
     <t>ght</t>
   </si>
   <si>
-    <t>o_a</t>
-  </si>
-  <si>
     <t>eu</t>
   </si>
   <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>ao</t>
+  </si>
+  <si>
     <t>was</t>
   </si>
   <si>
-    <t>r_l</t>
-  </si>
-  <si>
-    <t>ao</t>
+    <t>pm</t>
   </si>
   <si>
     <t>wis</t>
   </si>
   <si>
-    <t>l_r</t>
-  </si>
-  <si>
-    <t>pm</t>
+    <t>rl</t>
   </si>
   <si>
     <t>wes</t>
   </si>
   <si>
-    <t>rl</t>
+    <t>lr</t>
   </si>
   <si>
     <t>put</t>
   </si>
   <si>
-    <t>lr</t>
+    <t>ws</t>
   </si>
   <si>
     <t>top</t>
   </si>
   <si>
-    <t>ws</t>
+    <t>sw</t>
   </si>
   <si>
     <t>ted</t>
   </si>
   <si>
-    <t>sw</t>
+    <t>dg</t>
   </si>
   <si>
     <t>ged</t>
   </si>
   <si>
-    <t>dg</t>
+    <t>pt</t>
   </si>
   <si>
     <t>hav</t>
   </si>
   <si>
-    <t>pt</t>
+    <t>tp</t>
   </si>
   <si>
     <t>mat</t>
   </si>
   <si>
-    <t>tp</t>
+    <t>TOTAL</t>
   </si>
   <si>
     <t>met</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>slides</t>
   </si>
   <si>
     <t>dat</t>
   </si>
   <si>
-    <t>slides</t>
+    <t>ue</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>ue</t>
+    <t>oa</t>
   </si>
   <si>
     <t>ure</t>
   </si>
   <si>
-    <t>oa</t>
+    <t>yi</t>
   </si>
   <si>
     <t>ked</t>
   </si>
   <si>
-    <t>yi</t>
-  </si>
-  <si>
     <t>bv</t>
   </si>
   <si>
@@ -259,42 +241,42 @@
     <t>m_d</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>d_m</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>cs</t>
   </si>
   <si>
     <t>m_g</t>
   </si>
   <si>
-    <t>cs</t>
+    <t>tm</t>
   </si>
   <si>
     <t>o_'</t>
   </si>
   <si>
-    <t>tm</t>
+    <t>mt</t>
   </si>
   <si>
     <t>a_'</t>
   </si>
   <si>
-    <t>mt</t>
+    <t>dm</t>
   </si>
   <si>
     <t xml:space="preserve"> '_a</t>
   </si>
   <si>
-    <t>dm</t>
+    <t>gt</t>
   </si>
   <si>
     <t>p_d</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>d_p</t>
   </si>
   <si>
@@ -313,7 +295,7 @@
     <t xml:space="preserve">sfs remaining</t>
   </si>
   <si>
-    <t xml:space="preserve">excluding partial fixes such as adm, because I couldn't get reliable percentage</t>
+    <t xml:space="preserve">excluding partial fixes such as adm, because there is no way to get reliable percentage</t>
   </si>
   <si>
     <t xml:space="preserve">repeat key freq</t>
@@ -442,7 +424,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -465,37 +447,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -513,25 +469,15 @@
     <xf fontId="2" fillId="0" borderId="1" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="0" applyNumberFormat="1"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -541,11 +487,11 @@
     <xf fontId="2" fillId="0" borderId="0" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="0" applyNumberFormat="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="0" applyNumberFormat="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1228,441 +1174,427 @@
       <c r="F7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="11"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" ht="16.5">
       <c r="A8" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="6">
         <v>0.0014000000000000002</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="6">
         <v>0.0012999999999999999</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0.0034000000000000002</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="M8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="13">
-        <v>0.00040000000000000002</v>
-      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" ht="16.5">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B9" s="6">
         <v>0.0014000000000000002</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F9" s="6">
         <v>0.0032000000000000002</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="13">
-        <v>0.0018</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" ht="16.5">
       <c r="A10" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B10" s="6">
         <v>0.0001</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F10" s="6">
-        <v>0.0025999999999999999</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="16">
-        <v>0.0017000000000000001</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+        <v>0.0007000000000000001</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="11"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" ht="16.5">
       <c r="A11" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B11" s="6">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F11" s="6">
-        <v>0.00029999999999999997</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="13">
-        <v>0.0011000000000000001</v>
-      </c>
-      <c r="K11" s="17"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
+        <v>0.0025999999999999999</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
     </row>
     <row r="12" ht="16.5">
       <c r="A12" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F12" s="6">
-        <v>0.0001</v>
-      </c>
+        <v>0.00029999999999999997</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" ht="16.5">
       <c r="A13" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B13" s="6">
         <v>0.0011000000000000001</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F13" s="6">
-        <v>0.00040000000000000002</v>
-      </c>
+        <v>0.0001</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" ht="16.5">
       <c r="A14" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B14" s="6">
         <v>0.0001</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F14" s="6">
-        <v>0.00029999999999999997</v>
-      </c>
+        <v>0.00040000000000000002</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" ht="16.5">
       <c r="A15" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B15" s="6">
         <v>0.00040000000000000002</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F15" s="6">
-        <v>0.0016000000000000001</v>
-      </c>
+        <v>0.00029999999999999997</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" ht="16.5">
       <c r="A16" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B16" s="6">
         <v>0.00040000000000000002</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F16" s="6">
-        <v>0.00029999999999999997</v>
-      </c>
+        <v>0.0016000000000000001</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" ht="16.5">
       <c r="A17" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B17" s="6">
         <v>0.00020000000000000001</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F17" s="6">
-        <v>0.0023999999999999998</v>
+        <v>0.00029999999999999997</v>
       </c>
     </row>
     <row r="18" ht="16.5">
       <c r="A18" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B18" s="6">
         <v>0.00050000000000000001</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F18" s="6">
-        <v>0.0007000000000000001</v>
+        <v>0.0023999999999999998</v>
       </c>
     </row>
     <row r="19" ht="16.5">
       <c r="A19" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B19" s="6">
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F19" s="6">
-        <v>0.0011000000000000001</v>
+        <v>0.0007000000000000001</v>
       </c>
     </row>
     <row r="20" ht="16.5">
       <c r="A20" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B20" s="6">
         <f>SUM(B8:B19)</f>
         <v>0.0056000000000000008</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F20" s="6">
-        <v>0.0001</v>
+        <v>0.0011000000000000001</v>
       </c>
     </row>
     <row r="21" ht="16.5">
       <c r="A21" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B21" s="3"/>
       <c r="E21" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F21" s="6">
-        <v>0.0018</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="22" ht="16.5">
       <c r="A22" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B22" s="6">
         <v>0.0011000000000000001</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F22" s="6">
-        <v>0.0012999999999999999</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="23" ht="16.5">
       <c r="A23" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B23" s="6">
         <v>0.00040000000000000002</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F23" s="6">
-        <v>0.00050000000000000001</v>
+        <v>0.0012999999999999999</v>
       </c>
     </row>
     <row r="24" ht="16.5">
       <c r="A24" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B24" s="6">
         <v>0.00050000000000000001</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F24" s="6">
-        <f>SUM(F8:F23)</f>
-        <v>0.017999999999999999</v>
+        <v>0.00050000000000000001</v>
       </c>
     </row>
     <row r="25" ht="16.5">
       <c r="A25" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="18">
+        <v>72</v>
+      </c>
+      <c r="B25" s="14">
         <v>0</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="3"/>
+      <c r="E25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="6">
+        <f>SUM(F8:F24)</f>
+        <v>0.018699999999999998</v>
+      </c>
     </row>
     <row r="26" ht="16.5">
       <c r="A26" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B26" s="6">
         <f>SUM(B22:B25)</f>
         <v>0.002</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0.0011999999999999999</v>
-      </c>
+      <c r="E26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" ht="16.5">
       <c r="A27" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B27" s="3"/>
       <c r="E27" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F27" s="6">
-        <v>0.00059999999999999995</v>
+        <v>0.0011999999999999999</v>
       </c>
     </row>
     <row r="28" ht="16.5">
       <c r="A28" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B28" s="6">
         <v>0.00089999999999999998</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F28" s="6">
-        <v>0.0007000000000000001</v>
+        <v>0.00059999999999999995</v>
       </c>
     </row>
     <row r="29" ht="16.5">
       <c r="A29" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B29" s="6">
         <v>0.0001</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F29" s="6">
-        <v>0.0030000000000000001</v>
+        <v>0.0007000000000000001</v>
       </c>
     </row>
     <row r="30" ht="16.5">
       <c r="A30" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B30" s="6">
         <v>0.0001</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F30" s="6">
-        <v>0.0014000000000000002</v>
+        <v>0.0030000000000000001</v>
       </c>
     </row>
     <row r="31" ht="16.5">
       <c r="A31" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="18">
+        <v>81</v>
+      </c>
+      <c r="B31" s="14">
         <v>0</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>89</v>
+      <c r="E31" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="F31" s="6">
-        <v>0.00020000000000000001</v>
+        <v>0.0014000000000000002</v>
       </c>
     </row>
     <row r="32" ht="16.5">
       <c r="A32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="18">
+        <v>83</v>
+      </c>
+      <c r="B32" s="14">
         <v>0.0001</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>91</v>
+      <c r="E32" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="F32" s="6">
-        <v>0.00050000000000000001</v>
+        <v>0.00020000000000000001</v>
       </c>
     </row>
     <row r="33" ht="16.5">
       <c r="A33" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B33" s="6">
         <v>0.0001</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F33" s="6">
-        <v>0.00020000000000000001</v>
+        <v>0.00050000000000000001</v>
       </c>
     </row>
     <row r="34" ht="16.5">
       <c r="A34" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B34" s="6">
         <f>SUM(B28:B33)</f>
         <v>0.0013000000000000002</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F34" s="6">
-        <v>0.00050000000000000001</v>
+        <v>0.00020000000000000001</v>
       </c>
     </row>
     <row r="35" ht="16.5">
       <c r="A35" s="3"/>
-      <c r="B35" s="20"/>
+      <c r="B35" s="16"/>
       <c r="E35" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F35" s="6">
-        <v>0.0011000000000000001</v>
+        <v>0.00050000000000000001</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -1670,12 +1602,12 @@
     </row>
     <row r="36" ht="16.5">
       <c r="A36" s="3"/>
-      <c r="B36" s="20"/>
+      <c r="B36" s="16"/>
       <c r="E36" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F36" s="6">
-        <v>0.00050000000000000001</v>
+        <v>0.0011000000000000001</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -1683,13 +1615,12 @@
     </row>
     <row r="37" ht="16.5">
       <c r="A37" s="3"/>
-      <c r="B37" s="20"/>
+      <c r="B37" s="16"/>
       <c r="E37" s="5" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F37" s="6">
-        <f>SUM(F26:F36)</f>
-        <v>0.0098999999999999991</v>
+        <v>0.00050000000000000001</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -1697,16 +1628,21 @@
     </row>
     <row r="38" ht="16.5">
       <c r="A38" s="3"/>
-      <c r="B38" s="20"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="B38" s="16"/>
+      <c r="E38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="6">
+        <f>SUM(F27:F37)</f>
+        <v>0.0098999999999999991</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" ht="16.5">
       <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="B39" s="16"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="H39" s="3"/>
@@ -1714,54 +1650,57 @@
       <c r="J39" s="4"/>
     </row>
     <row r="40" ht="16.5">
-      <c r="A40" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="21">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" ht="16.5">
+      <c r="A41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="18">
         <f>1.07%-SUM(B20,B26,B34)</f>
         <v>0.0017999999999999995</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="22">
-        <f>5.65%-SUM(F24,F37)</f>
-        <v>0.028600000000000004</v>
-      </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-    </row>
-    <row r="41" ht="16.5">
-      <c r="A41" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="19">
+        <f>5.65%-SUM(F25,F38)</f>
+        <v>0.027900000000000005</v>
+      </c>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
     </row>
     <row r="42" ht="16.5">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
     </row>
     <row r="43" ht="16.5">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
     </row>
     <row r="44" ht="16.5">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
     </row>
     <row r="45" ht="16.5">
       <c r="A45" s="3"/>
@@ -1772,24 +1711,26 @@
     <row r="46" ht="16.5">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" ht="16.5">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" ht="16.5">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
     </row>
     <row r="49" ht="16.5">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
     </row>
     <row r="50" ht="16.5">
       <c r="A50" s="3"/>
@@ -1855,18 +1796,20 @@
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
     </row>
+    <row r="66" ht="14.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A42:J42"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -2026,7 +1969,7 @@
     </row>
     <row r="6" ht="16.5">
       <c r="A6" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -2036,13 +1979,13 @@
     </row>
     <row r="7" ht="16.5">
       <c r="A7" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>36</v>
@@ -2051,233 +1994,233 @@
     </row>
     <row r="8" ht="16.5">
       <c r="A8" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E8" s="6">
         <v>0.0001</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" ht="16.5">
       <c r="A9" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B9" s="6">
         <v>0.008199999999999999</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E9" s="6">
         <v>0.001</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" ht="16.5">
       <c r="A10" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B10" s="6">
         <v>0.00040000000000000002</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="18">
+        <v>102</v>
+      </c>
+      <c r="E10" s="14">
         <v>0</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" ht="16.5">
       <c r="A11" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B11" s="6">
         <v>0.00050000000000000001</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E11" s="6">
         <v>0.0033</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" ht="16.5">
       <c r="A12" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="18">
+        <v>106</v>
+      </c>
+      <c r="E12" s="14">
         <v>0</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" ht="16.5">
       <c r="A13" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B13" s="6">
         <v>0.00089999999999999998</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E13" s="6">
         <v>0.0011000000000000001</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" ht="16.5">
       <c r="A14" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B14" s="6">
         <v>0.001</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E14" s="6">
         <v>0.0001</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" ht="16.5">
       <c r="A15" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B15" s="6">
         <v>0.0028000000000000004</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E15" s="6">
         <v>0.0048999999999999998</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" ht="16.5">
       <c r="A16" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B16" s="6">
         <v>0.0019</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="18">
+        <v>114</v>
+      </c>
+      <c r="E16" s="14">
         <v>0</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" ht="16.5">
       <c r="A17" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B17" s="6">
         <v>0.00020000000000000001</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="18">
+        <v>116</v>
+      </c>
+      <c r="E17" s="14">
         <v>0</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" ht="16.5">
       <c r="A18" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="18">
+        <v>118</v>
+      </c>
+      <c r="E18" s="14">
         <v>0</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" ht="16.5">
       <c r="A19" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B19" s="6">
         <v>0</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="18">
+        <v>120</v>
+      </c>
+      <c r="E19" s="14">
         <v>0</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" ht="16.5">
       <c r="A20" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B20" s="6">
         <v>0.0011999999999999999</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="18">
+        <v>122</v>
+      </c>
+      <c r="E20" s="14">
         <v>0</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" ht="16.5">
       <c r="A21" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B21" s="6">
         <v>0.00040000000000000002</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="18">
+        <v>124</v>
+      </c>
+      <c r="E21" s="14">
         <v>0</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" ht="16.5">
       <c r="A22" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E22" s="6">
         <f>SUM(E8:E21)</f>
         <v>0.010500000000000001</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" ht="16.5">
       <c r="A23" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B23" s="6">
         <f>SUM(B8:B22)</f>
@@ -2285,77 +2228,77 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="20"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" ht="16.5">
       <c r="A24" s="3"/>
-      <c r="B24" s="20"/>
+      <c r="B24" s="16"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" ht="16.5">
       <c r="A25" s="3"/>
-      <c r="B25" s="25"/>
+      <c r="B25" s="21"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="20"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" ht="16.5">
       <c r="A26" s="3"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="16"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="20"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" ht="16.5">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="20"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" ht="16.5">
       <c r="A28" s="3"/>
-      <c r="B28" s="20"/>
+      <c r="B28" s="16"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="20"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" ht="16.5">
       <c r="A29" s="3"/>
-      <c r="B29" s="20"/>
+      <c r="B29" s="16"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" ht="16.5">
       <c r="A30" s="3"/>
-      <c r="B30" s="20"/>
+      <c r="B30" s="16"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" ht="16.5">
       <c r="A31" s="3"/>
-      <c r="B31" s="25"/>
+      <c r="B31" s="21"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" ht="16.5">
       <c r="A32" s="3"/>
-      <c r="B32" s="25"/>
+      <c r="B32" s="21"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" ht="16.5">
       <c r="A33" s="3"/>
-      <c r="B33" s="20"/>
+      <c r="B33" s="16"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" ht="16.5">
       <c r="A34" s="3"/>
-      <c r="B34" s="20"/>
+      <c r="B34" s="16"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" ht="16.5">
       <c r="A35" s="3"/>
-      <c r="B35" s="20"/>
+      <c r="B35" s="16"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="H35" s="3"/>
@@ -2364,7 +2307,7 @@
     </row>
     <row r="36" ht="16.5">
       <c r="A36" s="3"/>
-      <c r="B36" s="20"/>
+      <c r="B36" s="16"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="H36" s="3"/>
@@ -2383,11 +2326,11 @@
     <row r="38" ht="16.5">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="21"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="22"/>
+      <c r="G38" s="19"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
